--- a/13技术部记录表.xlsx
+++ b/13技术部记录表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13020" yWindow="0" windowWidth="9750" windowHeight="6510"/>
+    <workbookView xWindow="13950" yWindow="0" windowWidth="9750" windowHeight="6510"/>
   </bookViews>
   <sheets>
     <sheet name="技术部" sheetId="1" r:id="rId1"/>
@@ -1362,8 +1362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2283,7 +2283,7 @@
         <v>115</v>
       </c>
       <c r="D43">
-        <v>18810939407</v>
+        <v>18810933407</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>129</v>

--- a/13技术部记录表.xlsx
+++ b/13技术部记录表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13950" yWindow="0" windowWidth="9750" windowHeight="6510"/>
+    <workbookView xWindow="14880" yWindow="0" windowWidth="9750" windowHeight="6510"/>
   </bookViews>
   <sheets>
     <sheet name="技术部" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="211">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -847,6 +847,10 @@
   </si>
   <si>
     <t>已分，详见分组表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;五：何兴平线上例会&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1027,7 +1031,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1063,16 +1067,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="6" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="4">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="3">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1360,10 +1370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1374,10 +1384,11 @@
     <col min="5" max="5" width="26.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.75" style="3" customWidth="1"/>
     <col min="7" max="7" width="18.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="12" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="12" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1402,8 +1413,11 @@
       <c r="H1" s="12" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I1" s="12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1422,11 +1436,11 @@
       <c r="F2" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="13" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1445,9 +1459,9 @@
       <c r="F3" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="H3" s="15"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1466,9 +1480,9 @@
       <c r="F4" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="H4" s="15"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1487,9 +1501,9 @@
       <c r="F5" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="H5" s="15"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1508,9 +1522,9 @@
       <c r="F6" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="H6" s="15"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1532,9 +1546,9 @@
       <c r="G7" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="H7" s="15"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -1553,9 +1567,10 @@
       <c r="F8" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="H8" s="15"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H8" s="14"/>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1574,9 +1589,9 @@
       <c r="G9" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="H9" s="15"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1595,9 +1610,9 @@
       <c r="F10" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="H10" s="15"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>73</v>
       </c>
@@ -1616,9 +1631,9 @@
       <c r="F11" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="H11" s="15"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -1637,9 +1652,9 @@
       <c r="G12" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="H12" s="15"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1658,9 +1673,9 @@
       <c r="F13" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1679,9 +1694,9 @@
       <c r="F14" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="H14" s="15"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1697,9 +1712,9 @@
       <c r="E15" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H15" s="15"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -1715,9 +1730,9 @@
       <c r="F16" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="H16" s="15"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H16" s="14"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -1730,9 +1745,9 @@
       <c r="D17">
         <v>18643267208</v>
       </c>
-      <c r="H17" s="15"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -1754,9 +1769,9 @@
       <c r="G18" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="H18" s="15"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
@@ -1778,9 +1793,9 @@
       <c r="G19" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="H19" s="15"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,11 +1811,11 @@
       <c r="E20" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="15" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
@@ -1822,11 +1837,11 @@
       <c r="G21" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="14" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -1845,9 +1860,10 @@
       <c r="F22" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="H22" s="15"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H22" s="14"/>
+      <c r="I22" s="17"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
@@ -1869,9 +1885,9 @@
       <c r="G23" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="H23" s="15"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -1893,9 +1909,9 @@
       <c r="G24" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="H24" s="15"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
@@ -1914,9 +1930,9 @@
       <c r="F25" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H25" s="14"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -1935,9 +1951,9 @@
       <c r="F26" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="H26" s="15"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H26" s="14"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -1953,11 +1969,11 @@
       <c r="E27" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="H27" s="15" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
@@ -1979,11 +1995,11 @@
       <c r="G28" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H28" s="14" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -2002,9 +2018,9 @@
       <c r="F29" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="H29" s="15"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H29" s="14"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
@@ -2020,9 +2036,9 @@
       <c r="G30" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="H30" s="15"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H30" s="14"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
@@ -2041,9 +2057,9 @@
       <c r="F31" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="H31" s="15"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H31" s="14"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
@@ -2062,9 +2078,9 @@
       <c r="G32" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="H32" s="15"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H32" s="14"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>45</v>
       </c>
@@ -2083,9 +2099,9 @@
       <c r="F33" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="H33" s="15"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H33" s="14"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
@@ -2104,9 +2120,9 @@
       <c r="F34" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="H34" s="15"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H34" s="14"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>47</v>
       </c>
@@ -2125,9 +2141,10 @@
       <c r="F35" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="H35" s="15"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H35" s="14"/>
+      <c r="I35" s="17"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>152</v>
       </c>
@@ -2146,9 +2163,9 @@
       <c r="F36" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="H36" s="15"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H36" s="14"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>50</v>
       </c>
@@ -2167,9 +2184,9 @@
       <c r="F37" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="H37" s="15"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H37" s="14"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -2185,9 +2202,9 @@
       <c r="E38" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="H38" s="15"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H38" s="14"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -2206,9 +2223,9 @@
       <c r="F39" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="H39" s="15"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H39" s="14"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>69</v>
       </c>
@@ -2227,11 +2244,11 @@
       <c r="F40" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="H40" s="13" t="s">
+      <c r="H40" s="15" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>54</v>
       </c>
@@ -2250,11 +2267,11 @@
       <c r="F41" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="H41" s="15" t="s">
+      <c r="H41" s="14" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -2270,9 +2287,9 @@
       <c r="E42" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="H42" s="15"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H42" s="14"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -2291,9 +2308,9 @@
       <c r="F43" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="H43" s="15"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H43" s="14"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -2312,9 +2329,9 @@
       <c r="F44" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="H44" s="15"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H44" s="14"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -2333,9 +2350,9 @@
       <c r="F45" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="H45" s="15"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H45" s="14"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -2354,9 +2371,9 @@
       <c r="F46" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="H46" s="15"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H46" s="14"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -2369,9 +2386,9 @@
       <c r="F47" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="H47" s="15"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H47" s="14"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>61</v>
       </c>
@@ -2387,9 +2404,9 @@
       <c r="E48" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H48" s="15"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H48" s="14"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>144</v>
       </c>
@@ -2408,9 +2425,9 @@
       <c r="F49" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="H49" s="15"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H49" s="14"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>145</v>
       </c>
@@ -2432,9 +2449,9 @@
       <c r="G50" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="H50" s="15"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H50" s="14"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -2450,9 +2467,10 @@
       <c r="E51" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H51" s="15"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H51" s="14"/>
+      <c r="I51" s="17"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>65</v>
       </c>
@@ -2471,9 +2489,9 @@
       <c r="F52" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="H52" s="15"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H52" s="14"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>66</v>
       </c>
@@ -2492,9 +2510,9 @@
       <c r="F53" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="H53" s="15"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H53" s="14"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>75</v>
       </c>
@@ -2513,9 +2531,9 @@
       <c r="F54" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="H54" s="15"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H54" s="14"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>158</v>
       </c>
@@ -2534,9 +2552,9 @@
       <c r="F55" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="H55" s="15"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H55" s="14"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>172</v>
       </c>
@@ -2553,9 +2571,9 @@
         <v>175</v>
       </c>
       <c r="F56"/>
-      <c r="H56" s="15"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H56" s="14"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>189</v>
       </c>
@@ -2572,7 +2590,7 @@
         <v>192</v>
       </c>
       <c r="F57"/>
-      <c r="H57" s="15"/>
+      <c r="H57" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
